--- a/02-Conceptual Data Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual Data Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology_v1.1\02-Conceptual Data Model\rpam\MS-RPaM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology_v1.1\02-Conceptual Data Model\MS-RPaM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="379">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -1162,6 +1162,12 @@
   </si>
   <si>
     <t>DétailDuMandat/EtatEtStatutDuMandat/DateDeValidationDuMandat</t>
+  </si>
+  <si>
+    <t>Service Provider</t>
+  </si>
+  <si>
+    <t>Mandate Registry</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1569,7 +1575,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1975,23 +1980,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="43"/>
       <c r="I2" s="44"/>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -2009,7 +2014,7 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -2465,37 +2470,37 @@
       <c r="N19" s="35"/>
     </row>
     <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="68"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="68"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="67"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
@@ -2512,11 +2517,11 @@
       <c r="G21" s="14"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
@@ -2564,11 +2569,11 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="s">
@@ -2589,11 +2594,11 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="40" t="s">
@@ -2612,11 +2617,11 @@
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="40" t="s">
@@ -2637,11 +2642,11 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="40" t="s">
@@ -2660,11 +2665,11 @@
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="s">
@@ -2683,11 +2688,11 @@
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="s">
@@ -2706,11 +2711,11 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="s">
@@ -2727,11 +2732,11 @@
       <c r="G30" s="14"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="40" t="s">
@@ -2750,11 +2755,11 @@
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="40" t="s">
@@ -2777,11 +2782,11 @@
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
@@ -2801,38 +2806,38 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
     </row>
     <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="65" t="s">
+      <c r="G34" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="64"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2871,22 +2876,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -2909,7 +2914,7 @@
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="22" t="s">
@@ -4073,22 +4078,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -5004,22 +5009,22 @@
   <sheetData>
     <row r="1" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -5611,19 +5616,19 @@
       <c r="H20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="63" t="s">
+      <c r="I20" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="64" t="s">
+      <c r="K20" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="64" t="s">
+      <c r="L20" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="65" t="s">
+      <c r="M20" s="64" t="s">
         <v>46</v>
       </c>
       <c r="N20" s="13"/>
@@ -5632,21 +5637,21 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59" t="s">
+      <c r="B21" s="57"/>
+      <c r="C21" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="69" t="s">
+      <c r="G21" s="59"/>
+      <c r="H21" s="68" t="s">
         <v>46</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -5664,8 +5669,8 @@
       <c r="M21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="60"/>
-      <c r="O21" s="61"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="60"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
@@ -6544,22 +6549,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -6627,7 +6632,7 @@
         <v>36</v>
       </c>
       <c r="L4" s="9"/>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="46" t="s">
         <v>37</v>
       </c>
       <c r="N4" s="9"/>
@@ -6847,10 +6852,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O28"/>
+  <dimension ref="B2:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6872,22 +6877,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -7015,39 +7020,39 @@
       <c r="N7" s="13"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="2:15" s="55" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49" t="s">
+    <row r="8" spans="2:15" s="54" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51" t="s">
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="52" t="s">
+      <c r="M8" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="54" t="s">
+      <c r="O8" s="53" t="s">
         <v>90</v>
       </c>
     </row>
@@ -7490,26 +7495,65 @@
       <c r="O27" s="15"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="30" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E29" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="46" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="32"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="21" t="s">
+        <v>378</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
